--- a/variaveis_descricao.xlsx
+++ b/variaveis_descricao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23255934f9002835/Documentos/GitHub2/Undergraduate-Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23255934f9002835/Documentos/GitHub2/MONOGRAFIA_TITO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="8_{547E594C-E19F-41B9-B942-8BEDFCE11099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE18302-F75A-4B52-BC72-9499E1FF9811}"/>
+  <xr:revisionPtr revIDLastSave="654" documentId="8_{547E594C-E19F-41B9-B942-8BEDFCE11099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB29C49F-4E42-4A0A-A489-F5B78FD14DFD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C93880DB-D2E6-4DDC-95E2-760621EF58D6}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{C93880DB-D2E6-4DDC-95E2-760621EF58D6}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -40,412 +40,412 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="136">
   <si>
+    <t>ipca_ali</t>
+  </si>
+  <si>
+    <t>ipca_hab</t>
+  </si>
+  <si>
+    <t>ipca_resid</t>
+  </si>
+  <si>
+    <t>ipca_vest</t>
+  </si>
+  <si>
+    <t>ipca_transp</t>
+  </si>
+  <si>
+    <t>ipca_comunic</t>
+  </si>
+  <si>
+    <t>ipca_saude</t>
+  </si>
+  <si>
+    <t>ipca_desp</t>
+  </si>
+  <si>
+    <t>ipca_educ</t>
+  </si>
+  <si>
+    <t>ipc_BR</t>
+  </si>
+  <si>
+    <t>igp_M</t>
+  </si>
+  <si>
+    <t>igp_DI</t>
+  </si>
+  <si>
+    <t>igp10</t>
+  </si>
+  <si>
+    <t>ipca15</t>
+  </si>
+  <si>
+    <t>bm_broad</t>
+  </si>
+  <si>
+    <t>bm</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>acumula_indice_mensal</t>
+  </si>
+  <si>
+    <t>acumula_var_mensal</t>
+  </si>
+  <si>
+    <t>PRICES</t>
+  </si>
+  <si>
+    <t>icbr</t>
+  </si>
+  <si>
+    <t>icbr_agr</t>
+  </si>
+  <si>
+    <t>icbr_metal</t>
+  </si>
+  <si>
+    <t>icbr_energy</t>
+  </si>
+  <si>
+    <t>COMMODITIES</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>ibcbr</t>
+  </si>
+  <si>
+    <t>pimpf</t>
+  </si>
+  <si>
+    <t>pimpf_extract</t>
+  </si>
+  <si>
+    <t>pimpf_manufac</t>
+  </si>
+  <si>
+    <t>retail_total</t>
+  </si>
+  <si>
+    <t>retail_fuel</t>
+  </si>
+  <si>
+    <t>retail_supermarket</t>
+  </si>
+  <si>
+    <t>retail_clothing</t>
+  </si>
+  <si>
+    <t>retail_house</t>
+  </si>
+  <si>
+    <t>retail_drugstore</t>
+  </si>
+  <si>
+    <t>retail_paper</t>
+  </si>
+  <si>
+    <t>retail_office</t>
+  </si>
+  <si>
+    <t>retail_others</t>
+  </si>
+  <si>
+    <t>retail_building</t>
+  </si>
+  <si>
+    <t>retail_auto</t>
+  </si>
+  <si>
+    <t>prod_vehicles</t>
+  </si>
+  <si>
+    <t>prod_agr_mach</t>
+  </si>
+  <si>
+    <t>vehicle_sales</t>
+  </si>
+  <si>
+    <t>tcu</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT</t>
+  </si>
+  <si>
+    <t>min_wage</t>
+  </si>
+  <si>
+    <t>aggreg_wage</t>
+  </si>
+  <si>
+    <t>elec</t>
+  </si>
+  <si>
+    <t>elec_com</t>
+  </si>
+  <si>
+    <t>elec_res</t>
+  </si>
+  <si>
+    <t>elec_ind</t>
+  </si>
+  <si>
+    <t>ELECTRICITY</t>
+  </si>
+  <si>
+    <t>CONFIDENCE</t>
+  </si>
+  <si>
+    <t>cons_confidence</t>
+  </si>
+  <si>
+    <t>future_expec</t>
+  </si>
+  <si>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>ibovespa</t>
+  </si>
+  <si>
+    <t>irf_m</t>
+  </si>
+  <si>
+    <t>ima_s</t>
+  </si>
+  <si>
+    <t>ima_b</t>
+  </si>
+  <si>
+    <t>ima</t>
+  </si>
+  <si>
+    <t>saving_deposits</t>
+  </si>
+  <si>
+    <t>selic</t>
+  </si>
+  <si>
+    <t>cdi</t>
+  </si>
+  <si>
+    <t>tjlp</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>cred_total</t>
+  </si>
+  <si>
+    <t>cred_gdp</t>
+  </si>
+  <si>
+    <t>indebt_house_19882</t>
+  </si>
+  <si>
+    <t>indebt_house_20400</t>
+  </si>
+  <si>
+    <t>net_debt_gdp</t>
+  </si>
+  <si>
+    <t>net_debt</t>
+  </si>
+  <si>
+    <t>net_debt_fedgov_bcb</t>
+  </si>
+  <si>
+    <t>net_debt_states</t>
+  </si>
+  <si>
+    <t>net_debt_cities</t>
+  </si>
+  <si>
+    <t>primary_result</t>
+  </si>
+  <si>
+    <t>debt_fedgov_old</t>
+  </si>
+  <si>
+    <t>debt_fedgov_new</t>
+  </si>
+  <si>
+    <t>treasury_emit</t>
+  </si>
+  <si>
+    <t>treasury_mkt</t>
+  </si>
+  <si>
+    <t>treasury_term</t>
+  </si>
+  <si>
+    <t>treasury_dur</t>
+  </si>
+  <si>
+    <t>GOVERNMENT</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>reer</t>
+  </si>
+  <si>
+    <t>usd_brl_end</t>
+  </si>
+  <si>
+    <t>usd_brl_avg</t>
+  </si>
+  <si>
+    <t>current_account</t>
+  </si>
+  <si>
+    <t>trade_balance</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>month_%_var</t>
+  </si>
+  <si>
+    <t>cmu_thousand</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>barrels_day_thousand</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>cmu</t>
+  </si>
+  <si>
+    <t>R$</t>
+  </si>
+  <si>
+    <t>GWh</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>%_pm</t>
+  </si>
+  <si>
+    <t>%_py</t>
+  </si>
+  <si>
+    <t>R$_million</t>
+  </si>
+  <si>
+    <t>cmu_million</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>cmu_US$</t>
+  </si>
+  <si>
+    <t>US$_million</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>unity</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>month_gdp</t>
+  </si>
+  <si>
+    <t>pmc</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>employment</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>checar no site pois gilberto chama de indice coisas q não são indice</t>
+  </si>
+  <si>
+    <t>ntnb</t>
+  </si>
+  <si>
+    <t>embi</t>
+  </si>
+  <si>
+    <t>vix</t>
+  </si>
+  <si>
+    <t>bp_acc_month</t>
+  </si>
+  <si>
+    <t>lag</t>
+  </si>
+  <si>
+    <t>transformation_code</t>
+  </si>
+  <si>
+    <t>no_transformation</t>
+  </si>
+  <si>
+    <t>first difference</t>
+  </si>
+  <si>
+    <t>unem</t>
+  </si>
+  <si>
     <t>ipca</t>
-  </si>
-  <si>
-    <t>ipca_ali</t>
-  </si>
-  <si>
-    <t>ipca_hab</t>
-  </si>
-  <si>
-    <t>ipca_resid</t>
-  </si>
-  <si>
-    <t>ipca_vest</t>
-  </si>
-  <si>
-    <t>ipca_transp</t>
-  </si>
-  <si>
-    <t>ipca_comunic</t>
-  </si>
-  <si>
-    <t>ipca_saude</t>
-  </si>
-  <si>
-    <t>ipca_desp</t>
-  </si>
-  <si>
-    <t>ipca_educ</t>
-  </si>
-  <si>
-    <t>ipc_BR</t>
-  </si>
-  <si>
-    <t>igp_M</t>
-  </si>
-  <si>
-    <t>igp_DI</t>
-  </si>
-  <si>
-    <t>igp10</t>
-  </si>
-  <si>
-    <t>ipca15</t>
-  </si>
-  <si>
-    <t>bm_broad</t>
-  </si>
-  <si>
-    <t>bm</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>acumula_indice_mensal</t>
-  </si>
-  <si>
-    <t>acumula_var_mensal</t>
-  </si>
-  <si>
-    <t>PRICES</t>
-  </si>
-  <si>
-    <t>icbr</t>
-  </si>
-  <si>
-    <t>icbr_agr</t>
-  </si>
-  <si>
-    <t>icbr_metal</t>
-  </si>
-  <si>
-    <t>icbr_energy</t>
-  </si>
-  <si>
-    <t>COMMODITIES</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>ibcbr</t>
-  </si>
-  <si>
-    <t>pimpf</t>
-  </si>
-  <si>
-    <t>pimpf_extract</t>
-  </si>
-  <si>
-    <t>pimpf_manufac</t>
-  </si>
-  <si>
-    <t>retail_total</t>
-  </si>
-  <si>
-    <t>retail_fuel</t>
-  </si>
-  <si>
-    <t>retail_supermarket</t>
-  </si>
-  <si>
-    <t>retail_clothing</t>
-  </si>
-  <si>
-    <t>retail_house</t>
-  </si>
-  <si>
-    <t>retail_drugstore</t>
-  </si>
-  <si>
-    <t>retail_paper</t>
-  </si>
-  <si>
-    <t>retail_office</t>
-  </si>
-  <si>
-    <t>retail_others</t>
-  </si>
-  <si>
-    <t>retail_building</t>
-  </si>
-  <si>
-    <t>retail_auto</t>
-  </si>
-  <si>
-    <t>prod_vehicles</t>
-  </si>
-  <si>
-    <t>prod_agr_mach</t>
-  </si>
-  <si>
-    <t>vehicle_sales</t>
-  </si>
-  <si>
-    <t>tcu</t>
-  </si>
-  <si>
-    <t>EMPLOYMENT</t>
-  </si>
-  <si>
-    <t>min_wage</t>
-  </si>
-  <si>
-    <t>aggreg_wage</t>
-  </si>
-  <si>
-    <t>elec</t>
-  </si>
-  <si>
-    <t>elec_com</t>
-  </si>
-  <si>
-    <t>elec_res</t>
-  </si>
-  <si>
-    <t>elec_ind</t>
-  </si>
-  <si>
-    <t>ELECTRICITY</t>
-  </si>
-  <si>
-    <t>CONFIDENCE</t>
-  </si>
-  <si>
-    <t>cons_confidence</t>
-  </si>
-  <si>
-    <t>future_expec</t>
-  </si>
-  <si>
-    <t>FINANCE</t>
-  </si>
-  <si>
-    <t>ibovespa</t>
-  </si>
-  <si>
-    <t>irf_m</t>
-  </si>
-  <si>
-    <t>ima_s</t>
-  </si>
-  <si>
-    <t>ima_b</t>
-  </si>
-  <si>
-    <t>ima</t>
-  </si>
-  <si>
-    <t>saving_deposits</t>
-  </si>
-  <si>
-    <t>selic</t>
-  </si>
-  <si>
-    <t>cdi</t>
-  </si>
-  <si>
-    <t>tjlp</t>
-  </si>
-  <si>
-    <t>CREDIT</t>
-  </si>
-  <si>
-    <t>cred_total</t>
-  </si>
-  <si>
-    <t>cred_gdp</t>
-  </si>
-  <si>
-    <t>indebt_house_19882</t>
-  </si>
-  <si>
-    <t>indebt_house_20400</t>
-  </si>
-  <si>
-    <t>net_debt_gdp</t>
-  </si>
-  <si>
-    <t>net_debt</t>
-  </si>
-  <si>
-    <t>net_debt_fedgov_bcb</t>
-  </si>
-  <si>
-    <t>net_debt_states</t>
-  </si>
-  <si>
-    <t>net_debt_cities</t>
-  </si>
-  <si>
-    <t>primary_result</t>
-  </si>
-  <si>
-    <t>debt_fedgov_old</t>
-  </si>
-  <si>
-    <t>debt_fedgov_new</t>
-  </si>
-  <si>
-    <t>treasury_emit</t>
-  </si>
-  <si>
-    <t>treasury_mkt</t>
-  </si>
-  <si>
-    <t>treasury_term</t>
-  </si>
-  <si>
-    <t>treasury_dur</t>
-  </si>
-  <si>
-    <t>GOVERNMENT</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>reer</t>
-  </si>
-  <si>
-    <t>usd_brl_end</t>
-  </si>
-  <si>
-    <t>usd_brl_avg</t>
-  </si>
-  <si>
-    <t>current_account</t>
-  </si>
-  <si>
-    <t>trade_balance</t>
-  </si>
-  <si>
-    <t>imports</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>month_%_var</t>
-  </si>
-  <si>
-    <t>cmu_thousand</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>barrels_day_thousand</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>cmu</t>
-  </si>
-  <si>
-    <t>R$</t>
-  </si>
-  <si>
-    <t>GWh</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>%_pm</t>
-  </si>
-  <si>
-    <t>%_py</t>
-  </si>
-  <si>
-    <t>R$_million</t>
-  </si>
-  <si>
-    <t>cmu_million</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>cmu_US$</t>
-  </si>
-  <si>
-    <t>US$_million</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>unity</t>
-  </si>
-  <si>
-    <t>transformation</t>
-  </si>
-  <si>
-    <t>month_gdp</t>
-  </si>
-  <si>
-    <t>pmc</t>
-  </si>
-  <si>
-    <t>steel</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>employment</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>checar no site pois gilberto chama de indice coisas q não são indice</t>
-  </si>
-  <si>
-    <t>ntnb</t>
-  </si>
-  <si>
-    <t>embi</t>
-  </si>
-  <si>
-    <t>vix</t>
-  </si>
-  <si>
-    <t>bp_acc_month</t>
-  </si>
-  <si>
-    <t>lag</t>
-  </si>
-  <si>
-    <t>transformation_code</t>
-  </si>
-  <si>
-    <t>no_transformation</t>
-  </si>
-  <si>
-    <t>first difference</t>
-  </si>
-  <si>
-    <t>unem</t>
   </si>
 </sst>
 </file>
@@ -501,31 +501,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -582,25 +562,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -922,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4443B3-E774-45D6-8062-C973BCE954CE}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:B85"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,69 +912,69 @@
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2">
+        <v>433</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>433</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
       </c>
       <c r="C3">
         <v>1635</v>
       </c>
       <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3">
@@ -1005,22 +982,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
+      <c r="A4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1636</v>
       </c>
       <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4">
@@ -1028,22 +1005,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>23</v>
+      <c r="A5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1637</v>
       </c>
       <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5">
@@ -1051,22 +1028,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
+      <c r="A6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1638</v>
       </c>
       <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6">
@@ -1074,22 +1051,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
+      <c r="A7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>1639</v>
       </c>
       <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
       <c r="G7">
@@ -1097,22 +1074,22 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
+      <c r="A8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1640</v>
       </c>
       <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8">
@@ -1120,22 +1097,22 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
+      <c r="A9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>1641</v>
       </c>
       <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>2</v>
       </c>
       <c r="G9">
@@ -1143,22 +1120,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
+      <c r="A10" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>1642</v>
       </c>
       <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
       <c r="G10">
@@ -1166,22 +1143,22 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
+      <c r="A11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1643</v>
       </c>
       <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11">
@@ -1189,22 +1166,22 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
+      <c r="A12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>191</v>
       </c>
       <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <v>2</v>
       </c>
       <c r="G12">
@@ -1212,22 +1189,22 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
+      <c r="A13" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>189</v>
       </c>
       <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <v>2</v>
       </c>
       <c r="G13">
@@ -1235,22 +1212,22 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
+      <c r="A14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>190</v>
       </c>
       <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <v>2</v>
       </c>
       <c r="G14">
@@ -1258,22 +1235,22 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>23</v>
+      <c r="A15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>7447</v>
       </c>
       <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <v>2</v>
       </c>
       <c r="G15">
@@ -1281,22 +1258,22 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>23</v>
+      <c r="A16" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>7478</v>
       </c>
       <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
       <c r="G16">
@@ -1304,20 +1281,20 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>23</v>
+      <c r="A17" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>1788</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1327,20 +1304,20 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>23</v>
+      <c r="A18" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>1785</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -1350,20 +1327,20 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
+      <c r="A19" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>1783</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1373,20 +1350,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>23</v>
+      <c r="A20" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>1786</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -1396,20 +1373,20 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>23</v>
+      <c r="A21" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>27813</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -1419,66 +1396,66 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>23</v>
+      <c r="A22" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>27815</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6">
+        <v>27574</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
-      </c>
-      <c r="C23" s="9">
-        <v>27574</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
       </c>
       <c r="C24">
         <v>27575</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -1488,20 +1465,20 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
+      <c r="A25" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>27576</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -1511,66 +1488,66 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="9">
+        <v>27577</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="12">
-        <v>27577</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="6">
+        <v>24363</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
-      </c>
-      <c r="C27" s="9">
-        <v>24363</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
       </c>
       <c r="C28">
         <v>21859</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -1580,20 +1557,20 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>29</v>
+      <c r="A29" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>21861</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -1603,20 +1580,20 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>21862</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -1626,20 +1603,20 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>29</v>
+      <c r="A31" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>1455</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -1649,20 +1626,20 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>29</v>
+      <c r="A32" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>1483</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -1672,20 +1649,20 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>29</v>
+      <c r="A33" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>1496</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1695,20 +1672,20 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>29</v>
+      <c r="A34" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>1509</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -1718,20 +1695,20 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>29</v>
+      <c r="A35" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>1522</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -1741,20 +1718,20 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>29</v>
+      <c r="A36" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>20099</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -1764,20 +1741,20 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>29</v>
+      <c r="A37" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>20101</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -1787,20 +1764,20 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>29</v>
+      <c r="A38" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>20102</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -1810,20 +1787,20 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>29</v>
+      <c r="A39" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>20104</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -1833,20 +1810,20 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>29</v>
+      <c r="A40" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>20105</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -1856,20 +1833,20 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>29</v>
+      <c r="A41" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>1548</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
@@ -1879,20 +1856,20 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>29</v>
+      <c r="A42" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>1373</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -1902,20 +1879,20 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>29</v>
+      <c r="A43" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>1388</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -1925,66 +1902,66 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>29</v>
+      <c r="A44" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>7389</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="9">
+        <v>24352</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="12" t="s">
+      <c r="F45" s="12">
+        <v>3</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="12">
-        <v>24352</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="15">
-        <v>3</v>
-      </c>
-      <c r="G45" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="B46" t="s">
         <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
       </c>
       <c r="C46">
         <v>1619</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -1994,20 +1971,20 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>49</v>
+      <c r="A47" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>10790</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -2017,64 +1994,64 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="16">
+      <c r="A48" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="13">
         <v>3</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="9">
+      <c r="A49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="6">
         <v>1406</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
-      <c r="G49" s="9">
+      <c r="D49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>1402</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
@@ -2085,19 +2062,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>1403</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
@@ -2107,43 +2084,43 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="12">
+      <c r="B52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="9">
         <v>1404</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="13">
-        <v>1</v>
-      </c>
-      <c r="G52" s="12">
+      <c r="D52" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
         <v>57</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
       </c>
       <c r="C53">
         <v>4393</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
@@ -2153,43 +2130,43 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="12">
+      <c r="A54" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="9">
         <v>4395</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="13">
-        <v>1</v>
-      </c>
-      <c r="G54" s="12">
+      <c r="D54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>12461</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" s="2">
         <v>1</v>
@@ -2200,19 +2177,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56">
         <v>12462</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
@@ -2223,19 +2200,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <v>12466</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
@@ -2246,19 +2223,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>12469</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -2269,19 +2246,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59">
         <v>1838</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
@@ -2292,19 +2269,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>4390</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2315,19 +2292,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61">
         <v>4391</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2338,19 +2315,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62">
         <v>256</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2361,13 +2338,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
         <v>60</v>
       </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2377,45 +2354,45 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="9">
+      <c r="C64" s="6">
         <v>28183</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F64" s="10">
-        <v>1</v>
-      </c>
-      <c r="G64" s="9">
+      <c r="D64" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65">
         <v>28215</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="18">
+        <v>94</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="15">
         <v>3</v>
       </c>
       <c r="G65">
@@ -2424,21 +2401,21 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66">
         <v>19882</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66" s="18">
+        <v>94</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" s="15">
         <v>3</v>
       </c>
       <c r="G66">
@@ -2446,68 +2423,68 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="9">
+        <v>20400</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="12">
+        <v>3</v>
+      </c>
+      <c r="G67" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="12">
-        <v>20400</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F67" s="15">
+      <c r="C68" s="6">
+        <v>4513</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" s="13">
         <v>3</v>
       </c>
-      <c r="G67" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="9">
-        <v>4513</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F68" s="16">
-        <v>3</v>
-      </c>
-      <c r="G68" s="9">
+      <c r="G68" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69">
         <v>4478</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F69" s="18">
+        <v>94</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="15">
         <v>3</v>
       </c>
       <c r="G69">
@@ -2516,21 +2493,21 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70">
         <v>4468</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="18">
+        <v>94</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="15">
         <v>3</v>
       </c>
       <c r="G70">
@@ -2539,21 +2516,21 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71">
         <v>4472</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71" s="18">
+        <v>94</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="15">
         <v>3</v>
       </c>
       <c r="G71">
@@ -2562,21 +2539,21 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72">
         <v>4473</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="18">
+        <v>94</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="15">
         <v>3</v>
       </c>
       <c r="G72">
@@ -2585,21 +2562,21 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73">
         <v>4649</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F73" s="18">
+        <v>94</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="15">
         <v>3</v>
       </c>
       <c r="G73">
@@ -2608,19 +2585,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74">
         <v>4502</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
@@ -2631,19 +2608,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75">
         <v>13761</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
@@ -2654,19 +2631,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76">
         <v>4151</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
@@ -2677,19 +2654,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77">
         <v>4154</v>
       </c>
       <c r="D77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
@@ -2700,21 +2677,21 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78">
         <v>10616</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F78" s="18">
+        <v>94</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="15">
         <v>3</v>
       </c>
       <c r="G78">
@@ -2722,43 +2699,43 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" s="12" t="s">
+      <c r="A79" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="12">
+      <c r="B79" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="9">
         <v>10617</v>
       </c>
-      <c r="D79" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F79" s="15">
+      <c r="D79" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="12">
         <v>3</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
         <v>88</v>
-      </c>
-      <c r="B80" t="s">
-        <v>89</v>
       </c>
       <c r="C80">
         <v>11752</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
@@ -2769,19 +2746,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81">
         <v>3695</v>
       </c>
       <c r="D81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -2792,19 +2769,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82">
         <v>3697</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
@@ -2815,19 +2792,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83">
         <v>22701</v>
       </c>
       <c r="D83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
@@ -2838,19 +2815,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84">
         <v>22707</v>
       </c>
       <c r="D84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
@@ -2861,19 +2838,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85">
         <v>22709</v>
       </c>
       <c r="D85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
@@ -2892,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C079757A-2071-4B21-947D-0A1BE263F0E7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2904,10 +2881,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2915,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2923,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2931,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2939,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2963,33 +2940,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2997,83 +2974,83 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="8">
+        <v>119</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="8">
+        <v>120</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="9">
+        <v>122</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="12">
+        <v>123</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="8">
+        <v>124</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3081,13 +3058,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -3095,21 +3072,21 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="8">
+        <v>128</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
